--- a/biology/Zoologie/Chaco_(genre)/Chaco_(genre).xlsx
+++ b/biology/Zoologie/Chaco_(genre)/Chaco_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaco est un genre d'araignées mygalomorphes de la famille des Pycnothelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaco est un genre d'araignées mygalomorphes de la famille des Pycnothelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Argentine, au Chili, en Uruguay et au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Argentine, au Chili, en Uruguay et au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 23/02/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 23/02/2022) :
 Chaco ansilta Ferretti, 2014
 Chaco castanea Montes de Oca &amp; Pérez-Miles, 2013
 Chaco costai Montes de Oca &amp; Pérez-Miles, 2013
@@ -584,9 +600,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Tullgren en 1905 dans les Avicularidae. Il est placé dans les Ctenizidae par  Gerschman et Schiapelli en 1965[3], dans les Nemesiidae par Raven en 1985[4] puis dans les Pycnothelidae par Montes de Oca, Indicatti, Opatova, Almeida, Pérez-Miles et Bond en 2022[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Tullgren en 1905 dans les Avicularidae. Il est placé dans les Ctenizidae par  Gerschman et Schiapelli en 1965, dans les Nemesiidae par Raven en 1985 puis dans les Pycnothelidae par Montes de Oca, Indicatti, Opatova, Almeida, Pérez-Miles et Bond en 2022.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tullgren, 1905 : « Aranedia from the Swedish expedition through the Gran Chaco and the Cordilleras. » Arkiv för Zoologi, vol. 2, no 19, p. 1-81 (texte intégral).</t>
         </is>
